--- a/windows/gpu_windows.xlsx
+++ b/windows/gpu_windows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>date_hour_of_Aug</t>
   </si>
@@ -134,6 +134,75 @@
   </si>
   <si>
     <t>06_6</t>
+  </si>
+  <si>
+    <t>07_12</t>
+  </si>
+  <si>
+    <t>07_6</t>
+  </si>
+  <si>
+    <t>08_12</t>
+  </si>
+  <si>
+    <t>08_6</t>
+  </si>
+  <si>
+    <t>09_12</t>
+  </si>
+  <si>
+    <t>09_6</t>
+  </si>
+  <si>
+    <t>10_12</t>
+  </si>
+  <si>
+    <t>10_6</t>
+  </si>
+  <si>
+    <t>11_12</t>
+  </si>
+  <si>
+    <t>11_6</t>
+  </si>
+  <si>
+    <t>12_12</t>
+  </si>
+  <si>
+    <t>12_6</t>
+  </si>
+  <si>
+    <t>13_12</t>
+  </si>
+  <si>
+    <t>13_6</t>
+  </si>
+  <si>
+    <t>14_12</t>
+  </si>
+  <si>
+    <t>14_6</t>
+  </si>
+  <si>
+    <t>15_12</t>
+  </si>
+  <si>
+    <t>15_6</t>
+  </si>
+  <si>
+    <t>16_12</t>
+  </si>
+  <si>
+    <t>16_6</t>
+  </si>
+  <si>
+    <t>17_12</t>
+  </si>
+  <si>
+    <t>17_6</t>
+  </si>
+  <si>
+    <t>18_12</t>
   </si>
 </sst>
 </file>
@@ -465,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2704,6 +2773,1630 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>37</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>29</v>
+      </c>
+      <c r="G86">
+        <v>29</v>
+      </c>
+      <c r="H86">
+        <v>35</v>
+      </c>
+      <c r="I86">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90">
+        <v>53</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>51</v>
+      </c>
+      <c r="I90">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91">
+        <v>54</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>38</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>36</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>37</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>55</v>
+      </c>
+      <c r="I93">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117">
+        <v>31</v>
+      </c>
+      <c r="C117">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>53</v>
+      </c>
+      <c r="I117">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>62</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
